--- a/financial_files/excel/ATVI.xlsx
+++ b/financial_files/excel/ATVI.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data" ref="A1:O115" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data_scraped" ref="A1:O115" headerRowCount="1">
   <autoFilter ref="A1:O115"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Category"/>

--- a/financial_files/excel/ATVI.xlsx
+++ b/financial_files/excel/ATVI.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_statement_api" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="rule1_results" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -156,6 +158,47 @@
     <tableColumn id="13" name="2018"/>
     <tableColumn id="14" name="2019"/>
     <tableColumn id="15" name="TTM"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="financial_statement_api" displayName="financial_statement_api" ref="A1:U23" headerRowCount="1">
+  <autoFilter ref="A1:U23"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="API Parameter"/>
+    <tableColumn id="2" name="2000"/>
+    <tableColumn id="3" name="2001"/>
+    <tableColumn id="4" name="2002"/>
+    <tableColumn id="5" name="2003"/>
+    <tableColumn id="6" name="2004"/>
+    <tableColumn id="7" name="2005"/>
+    <tableColumn id="8" name="2006"/>
+    <tableColumn id="9" name="2007"/>
+    <tableColumn id="10" name="2008"/>
+    <tableColumn id="11" name="2009"/>
+    <tableColumn id="12" name="2010"/>
+    <tableColumn id="13" name="2011"/>
+    <tableColumn id="14" name="2012"/>
+    <tableColumn id="15" name="2013"/>
+    <tableColumn id="16" name="2014"/>
+    <tableColumn id="17" name="2015"/>
+    <tableColumn id="18" name="2016"/>
+    <tableColumn id="19" name="2017"/>
+    <tableColumn id="20" name="2018"/>
+    <tableColumn id="21" name="2019"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="rule1_results" displayName="rule1_results" ref="A1:B55" headerRowCount="1">
+  <autoFilter ref="A1:B55"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Rule #1 Metric"/>
+    <tableColumn id="2" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6831,4 +6874,2255 @@
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>API Parameter</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>revenue</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>572205000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>620183000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>786434000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>864116000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>947656000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1405857000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1468000000</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1513012000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2898136000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4279000000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4447000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4755000000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4856000000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4583000000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4408000000</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4664000000</v>
+      </c>
+      <c r="R2" t="n">
+        <v>6608000000</v>
+      </c>
+      <c r="S2" t="n">
+        <v>7017000000</v>
+      </c>
+      <c r="T2" t="n">
+        <v>7500000000</v>
+      </c>
+      <c r="U2" t="n">
+        <v>6489000000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>operating_income</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-30325000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>39807000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>80574000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>94847000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>109817000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>179608000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>15226000</v>
+      </c>
+      <c r="I3" t="n">
+        <v>73147000</v>
+      </c>
+      <c r="J3" t="n">
+        <v>479614000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>406000000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>795000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1353000000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1451000000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1372000000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1183000000</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1319000000</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1412000000</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1324000000</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1998000000</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1739000000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pretax_income</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-38736000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>32544000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>83120000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>103407000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>115992000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>192700000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>45856000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>109825000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>530868000</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-8000000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>492000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1331000000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1458000000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1319000000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>981000000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1121000000</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1106000000</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1151000000</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1877000000</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1633000000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>income_tax</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4648000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-12037000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-30882000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-37227000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-38277000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-57643000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-5605000</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-24038000</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-185985000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>121000000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-74000000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-246000000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-309000000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-309000000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-146000000</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-229000000</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-140000000</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-878000000</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-29000000</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-130000000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>eps_diluted</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>shares_diluted</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>296277000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>328784000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>475616000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>829199000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>918532000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>740547000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>588004000</v>
+      </c>
+      <c r="I7" t="n">
+        <v>610678000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>629462000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1311000000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1236000000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1156000000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1118000000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1035000000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>726000000</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>739000000</v>
+      </c>
+      <c r="R7" t="n">
+        <v>754000000</v>
+      </c>
+      <c r="S7" t="n">
+        <v>766000000</v>
+      </c>
+      <c r="T7" t="n">
+        <v>771000000</v>
+      </c>
+      <c r="U7" t="n">
+        <v>771000000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>total_assets</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>309737000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>359957000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>556887000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>704816000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>968817000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1306963000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1418255000</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1793947000</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2530673000</v>
+      </c>
+      <c r="K8" t="n">
+        <v>13742000000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>13406000000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>13277000000</v>
+      </c>
+      <c r="N8" t="n">
+        <v>14200000000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>14012000000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>14642000000</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>15246000000</v>
+      </c>
+      <c r="R8" t="n">
+        <v>17452000000</v>
+      </c>
+      <c r="S8" t="n">
+        <v>18668000000</v>
+      </c>
+      <c r="T8" t="n">
+        <v>17890000000</v>
+      </c>
+      <c r="U8" t="n">
+        <v>19845000000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>st_debt</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>16260000</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10231000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>168000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>147000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>lt_debt</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>73778000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>63401000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3122000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2671000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4668000000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4324000000</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4074000000</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4887000000</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4390000000</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2671000000</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2675000000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>total_equity</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>132009000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>181306000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>430091000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>597740000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>832738000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1099912000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1222623000</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1411532000</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1947892000</v>
+      </c>
+      <c r="K11" t="n">
+        <v>10756000000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>10203000000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>10492000000</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11317000000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>6622000000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>7233000000</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>8068000000</v>
+      </c>
+      <c r="R11" t="n">
+        <v>9119000000</v>
+      </c>
+      <c r="S11" t="n">
+        <v>9462000000</v>
+      </c>
+      <c r="T11" t="n">
+        <v>11392000000</v>
+      </c>
+      <c r="U11" t="n">
+        <v>12805000000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>cf_cfo</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>77389000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>81565000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>111792000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>90975000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>67403000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>215309000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>86007000</v>
+      </c>
+      <c r="I12" t="n">
+        <v>27162000</v>
+      </c>
+      <c r="J12" t="n">
+        <v>573500000</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1183000000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1376000000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>952000000</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1345000000</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1264000000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1331000000</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1259000000</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2155000000</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2213000000</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1790000000</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1831000000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>cfi_ppe_net</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-4518000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-8631000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-8511000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-11877000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-11976000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-14941000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-30406000</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-17935000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-29157000</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-69000000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-97000000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-72000000</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-73000000</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-74000000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-107000000</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-111000000</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-136000000</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-155000000</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-131000000</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-116000000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>roic</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.2042</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.3681</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.2819</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.2281</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.2343</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0486</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0905</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.4369</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0264</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0543</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.1474</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.1564</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.1416</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.1226</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.1047</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.0916</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.0274</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.1947</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.1539</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>revenue_growth</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.3108</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0838</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0987</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.09660000000000001</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.4835</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0442</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0306</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.9154</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.4764</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.0392</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0692</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.0212</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-0.0562</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-0.0381</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.4168</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.0618</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.0688</v>
+      </c>
+      <c r="U15" t="n">
+        <v>-0.1348</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>eps_diluted_growth</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.5478</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.746</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.2727</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.2439</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.6195000000000001</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.9285</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.8363</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.6666</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.7878</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0978</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-0.0594</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.1894</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.0756</v>
+      </c>
+      <c r="S16" t="n">
+        <v>-0.7187</v>
+      </c>
+      <c r="T16" t="n">
+        <v>5.6666</v>
+      </c>
+      <c r="U16" t="n">
+        <v>-0.1875</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>total_equity_growth</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0355</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3734</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.3721</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.3897</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.3931</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.3208</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.1115</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.1545</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.3799</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.5218</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-0.0514</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.0283</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0786</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-0.4148</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.0922</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.1154</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.1302</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.0376</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.2039</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>cfo_growth</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3.2544</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0539</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.3705</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.1862</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.2591</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.1943</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.6005</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.6841</v>
+      </c>
+      <c r="J18" t="n">
+        <v>20.114</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.0627</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.1631</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.3081</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.4128</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-0.0602</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-0.054</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.7116</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.0269</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-0.1911</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.0229</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>fcf_growth</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4.064</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.2341</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.2992</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.6149</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.7225</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-0.834</v>
+      </c>
+      <c r="J19" t="n">
+        <v>57.9945</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.0465</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.1481</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.3119</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.4454</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-0.0644</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.0285</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-0.062</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.7587</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.0193</v>
+      </c>
+      <c r="T19" t="n">
+        <v>-0.1938</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.0337</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>fcf</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>72871000</v>
+      </c>
+      <c r="C20" t="n">
+        <v>72934000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>103281000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>79098000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>55427000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>200368000</v>
+      </c>
+      <c r="H20" t="n">
+        <v>55601000</v>
+      </c>
+      <c r="I20" t="n">
+        <v>9227000</v>
+      </c>
+      <c r="J20" t="n">
+        <v>544343000</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1114000000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1279000000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>880000000</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1272000000</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1190000000</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1224000000</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1148000000</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2019000000</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2058000000</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1659000000</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1715000000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>book_value_per_share</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.4455</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.5514</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9042</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.7208</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9065</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.4852</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.0792</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.3114</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.0945</v>
+      </c>
+      <c r="K21" t="n">
+        <v>8.2044</v>
+      </c>
+      <c r="L21" t="n">
+        <v>8.254799999999999</v>
+      </c>
+      <c r="M21" t="n">
+        <v>9.0761</v>
+      </c>
+      <c r="N21" t="n">
+        <v>10.1225</v>
+      </c>
+      <c r="O21" t="n">
+        <v>6.398</v>
+      </c>
+      <c r="P21" t="n">
+        <v>9.9628</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>10.9174</v>
+      </c>
+      <c r="R21" t="n">
+        <v>12.0941</v>
+      </c>
+      <c r="S21" t="n">
+        <v>12.3524</v>
+      </c>
+      <c r="T21" t="n">
+        <v>14.7756</v>
+      </c>
+      <c r="U21" t="n">
+        <v>16.6083</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>market_cap</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>308451980</v>
+      </c>
+      <c r="C22" t="n">
+        <v>663604970</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1690402430</v>
+      </c>
+      <c r="E22" t="n">
+        <v>869178290</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2172886050</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3087832320</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3822889800</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5365900870</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8049878980</v>
+      </c>
+      <c r="K22" t="n">
+        <v>13892277300</v>
+      </c>
+      <c r="L22" t="n">
+        <v>14720500800</v>
+      </c>
+      <c r="M22" t="n">
+        <v>13963364800</v>
+      </c>
+      <c r="N22" t="n">
+        <v>11805298200</v>
+      </c>
+      <c r="O22" t="n">
+        <v>12547131470</v>
+      </c>
+      <c r="P22" t="n">
+        <v>14546869350</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>28432611130</v>
+      </c>
+      <c r="R22" t="n">
+        <v>26919535570</v>
+      </c>
+      <c r="S22" t="n">
+        <v>47965216600</v>
+      </c>
+      <c r="T22" t="n">
+        <v>35552376260</v>
+      </c>
+      <c r="U22" t="n">
+        <v>45679719200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>price_to_earnings</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-9.0486</v>
+      </c>
+      <c r="C23" t="n">
+        <v>32.3599</v>
+      </c>
+      <c r="D23" t="n">
+        <v>32.3596</v>
+      </c>
+      <c r="E23" t="n">
+        <v>13.1335</v>
+      </c>
+      <c r="F23" t="n">
+        <v>27.9596</v>
+      </c>
+      <c r="G23" t="n">
+        <v>22.8631</v>
+      </c>
+      <c r="H23" t="n">
+        <v>94.97620000000001</v>
+      </c>
+      <c r="I23" t="n">
+        <v>62.5491</v>
+      </c>
+      <c r="J23" t="n">
+        <v>23.3408</v>
+      </c>
+      <c r="K23" t="n">
+        <v>122.9405</v>
+      </c>
+      <c r="L23" t="n">
+        <v>35.2165</v>
+      </c>
+      <c r="M23" t="n">
+        <v>12.8694</v>
+      </c>
+      <c r="N23" t="n">
+        <v>10.2744</v>
+      </c>
+      <c r="O23" t="n">
+        <v>12.4229</v>
+      </c>
+      <c r="P23" t="n">
+        <v>17.4214</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>31.8751</v>
+      </c>
+      <c r="R23" t="n">
+        <v>27.867</v>
+      </c>
+      <c r="S23" t="n">
+        <v>175.6967</v>
+      </c>
+      <c r="T23" t="n">
+        <v>19.2382</v>
+      </c>
+      <c r="U23" t="n">
+        <v>30.3923</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Rule #1 Metric</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ROIC - 10-year</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>8.93%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ROIC - 5-year</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8.81%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ROIC - 3-year</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>8.86%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ROIC - 1-year</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10.34%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 10-year</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11.95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 5-year</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>11.45%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 3-year</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>12.53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 1-year</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>15.39%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>7.31%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10.76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11.15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12.40%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>36.01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>11.53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>15.06%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>-18.75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>4.25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>8.04%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>-0.60%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>-13.48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>4.41%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>6.98%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>-5.29%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>3.38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>4.46%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>6.59%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>-5.29%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2.29%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Debt - Current Long-Term Debt</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2675000000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Debt - Payoff Possible</t>
+        </is>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>current_eps</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2.848999959816108</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>analyst_growth_rate</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.2438</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>equity_growth_rate</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.104059914079867</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>eps_growth_rate</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.104059914079867</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>future_eps</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>7.66688346752017</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>average_historical_pe</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>37.32738999999999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>default_pe</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>20.81198281597341</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>future_pe</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>20.81198281597341</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>future_market_price</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>159.5630469781004</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>sticker_price</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>39.44154487519123</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>margin_of_safety</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>19.72077243759561</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>shortName</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Activision Blizzard, Inc</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ATVI</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>currency</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>market</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>us_market</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>exchange</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>NMS</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>sector</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>industry</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Electronic Gaming &amp; Multimedia</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>website</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>http://www.activisionblizzard.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>marketCap</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>69479849984</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>7182844</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>forwardPE</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>25.395481</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>previousClose</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>92.84999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>